--- a/figures/int/stats.xlsx
+++ b/figures/int/stats.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.747</v>
+        <v>0.733</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.0005446055589503767</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.743</v>
+        <v>0.721</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.665</v>
+        <v>0.664</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.712</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.636</v>
+        <v>0.617</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.663</v>
+        <v>0.647</v>
       </c>
       <c r="E5" t="n">
         <v>0.008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0154850110210615</v>
+        <v>0.008722348819355559</v>
       </c>
     </row>
     <row r="6">
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.616</v>
+        <v>0.649</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.644</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.642</v>
+        <v>0.631</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.662</v>
+        <v>0.644</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.703</v>
+        <v>0.681</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
